--- a/data/trans_camb/P16B13-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B13-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 57,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,81; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,15; 23,75</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>14,66%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-8,21%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,37%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 135,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,81; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,43; 31,45</t>
         </is>
       </c>
     </row>
@@ -757,27 +757,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-11,23</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-3,41</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,22; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,39; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,95; -1,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,22; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,39; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,95; -1,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,13</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,75; 51,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,47; 66,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 37,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 37,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 31,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 35,84</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,17%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,36; 146,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,62; 187,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 64,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 63,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; 50,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 59,24</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-6,07</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-31,22</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,34</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,35; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,37; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,85; 0,0</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,07%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,22%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,34%</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,35; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,37; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,85; 0,0</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,99; 0,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,84; 0,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,1</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,81; 12,82</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 11,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,12; 7,38</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,94%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,76%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,39%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,99; 0,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,84; 0,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,16</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,33; 14,82</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 12,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,35; 8,14</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,46</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,6; 9,92</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 30,12</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 29,38</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,42</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,81; 10,91</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,25%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,73</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,89; 11,05</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 43,13</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 41,6</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 22,57</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,81; 12,24</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,62; 2,91</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; 5,42</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 8,42</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 6,75</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 4,25</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 4,89</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,03%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 3,04</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,34; 5,86</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 9,33</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 7,42</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 4,62</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 5,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B13-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-21,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,02; 17,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,33; 7,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,08; 23,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,95; 7,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>21,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,97</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>14,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 51,01</t>
+          <t>0,0; 67,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 37,82</t>
+          <t>-4,48; 35,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 31,35</t>
+          <t>-0,58; 35,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,28%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,36; 146,53</t>
+          <t>0,0; 209,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 64,16</t>
+          <t>-4,3; 62,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 50,93</t>
+          <t>-0,42; 58,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P16B13-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-52,02; 17,56</t>
+          <t>-52,35; 22,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,52</t>
+          <t>0,0; 57,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 0,0</t>
+          <t>-26,92; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 7,31</t>
+          <t>-27,56; 9,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 23,75</t>
+          <t>-11,43; 22,56</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,08; 23,95</t>
+          <t>-57,94; 31,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 135,41</t>
+          <t>0,0; 132,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,24 +730,24 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 0,0</t>
+          <t>-26,92; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 7,76</t>
+          <t>-29,21; 9,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 31,45</t>
+          <t>-11,46; 30,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 0,0</t>
+          <t>-39,91; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 0,0</t>
+          <t>-14,26; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,95; -1,59</t>
+          <t>-21,16; -1,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 0,0</t>
+          <t>-39,91; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 0,0</t>
+          <t>-14,26; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,95; -1,59</t>
+          <t>-21,16; -1,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,71</t>
+          <t>0,0; 68,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 66,95</t>
+          <t>-18,9; 57,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 35,65</t>
+          <t>-6,04; 38,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 37,93</t>
+          <t>-0,4; 40,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 35,3</t>
+          <t>-1,71; 33,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 35,84</t>
+          <t>-3,44; 34,93</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 209,66</t>
+          <t>0,0; 221,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 187,93</t>
+          <t>-19,18; 160,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 62,32</t>
+          <t>-5,75; 69,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 63,28</t>
+          <t>-0,44; 68,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 58,33</t>
+          <t>-1,72; 54,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 59,24</t>
+          <t>-3,48; 55,62</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-30,35; 0,0</t>
+          <t>-26,52; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 0,0</t>
+          <t>-16,13; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 0,0</t>
+          <t>-47,24; 0,0</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-30,35; 0,0</t>
+          <t>-26,52; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1359,19 +1359,19 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 0,0</t>
+          <t>-16,13; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 0,0</t>
+          <t>-47,24; 0,0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1527,7 +1527,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 0,0</t>
+          <t>-19,95; 0,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 0,0</t>
+          <t>-24,17; 0,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,1</t>
+          <t>0,0; 19,45</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 12,82</t>
+          <t>-8,59; 12,75</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 11,04</t>
+          <t>-1,64; 10,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 7,38</t>
+          <t>-8,85; 6,41</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 0,0</t>
+          <t>-19,95; 0,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 0,0</t>
+          <t>-24,17; 0,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,16</t>
+          <t>0,0; 24,15</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 14,82</t>
+          <t>-8,88; 14,64</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 12,9</t>
+          <t>-1,64; 11,58</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 8,14</t>
+          <t>-9,0; 6,88</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,46</t>
+          <t>0,0; 24,64</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-35,6; 9,92</t>
+          <t>-30,3; 9,85</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,12</t>
+          <t>0,0; 32,52</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,38</t>
+          <t>0,0; 29,0</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,42</t>
+          <t>0,0; 16,41</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 10,91</t>
+          <t>-8,77; 10,79</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,73</t>
+          <t>0,0; 32,69</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 11,05</t>
+          <t>-33,01; 10,91</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,13</t>
+          <t>0,0; 48,43</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,6</t>
+          <t>0,0; 40,85</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,57</t>
+          <t>0,0; 19,63</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 12,24</t>
+          <t>-9,01; 12,07</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 2,91</t>
+          <t>-10,89; 3,26</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 5,42</t>
+          <t>-8,92; 5,32</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 8,42</t>
+          <t>-0,13; 7,87</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 6,75</t>
+          <t>-2,55; 6,52</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 4,25</t>
+          <t>-3,23; 4,36</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 4,89</t>
+          <t>-3,51; 4,19</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 3,04</t>
+          <t>-11,19; 3,54</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 5,86</t>
+          <t>-9,12; 5,81</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 9,33</t>
+          <t>-0,08; 8,62</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 7,42</t>
+          <t>-2,59; 7,11</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 4,62</t>
+          <t>-3,35; 4,7</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,26</t>
+          <t>-3,62; 4,52</t>
         </is>
       </c>
     </row>
